--- a/Symphony/2020/November/All Details/30.11.2020/MC Bank Statement November-2020.xlsx
+++ b/Symphony/2020/November/All Details/30.11.2020/MC Bank Statement November-2020.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2020\November\All Details\30.11.2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Nov 2020" sheetId="7" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Balance Transfer" sheetId="14" r:id="rId3"/>
     <sheet name="Expence" sheetId="15" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +37,7 @@
     <author>LENOVO</author>
   </authors>
   <commentList>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="F13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0">
+    <comment ref="F19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O25" authorId="0">
+    <comment ref="O25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0">
+    <comment ref="D31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -553,9 +558,6 @@
     <t>House Rent</t>
   </si>
   <si>
-    <t>Etc</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -840,13 +842,16 @@
   <si>
     <t>ADSR</t>
   </si>
+  <si>
+    <t>1% Less</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="52">
     <font>
@@ -2141,14 +2146,14 @@
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3061,18 +3066,54 @@
     <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="41" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="41" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3083,42 +3124,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="41" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="41" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3212,7 +3217,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3224,7 +3229,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3247,14 +3252,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3291,7 +3296,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +3308,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3326,14 +3331,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3365,7 +3370,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3377,7 +3382,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3400,14 +3405,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3518,7 +3523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3550,9 +3555,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3584,6 +3590,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3759,7 +3766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -3794,7 +3801,7 @@
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="286" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="286"/>
       <c r="D3" s="286"/>
@@ -3849,7 +3856,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="35"/>
       <c r="B7" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="39">
         <v>1200000</v>
@@ -3868,7 +3875,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="35"/>
       <c r="B8" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" s="39">
         <v>650000</v>
@@ -3887,7 +3894,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="35"/>
       <c r="B9" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="39">
         <v>500000</v>
@@ -3906,7 +3913,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="35"/>
       <c r="B10" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="42">
         <v>480000</v>
@@ -3925,7 +3932,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="35"/>
       <c r="B11" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="39">
         <v>420000</v>
@@ -3944,7 +3951,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="35"/>
       <c r="B12" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="39">
         <v>0</v>
@@ -3963,7 +3970,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="35"/>
       <c r="B13" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="39">
         <v>990000</v>
@@ -3982,7 +3989,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="35"/>
       <c r="B14" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="39">
         <v>315000</v>
@@ -4001,7 +4008,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="35"/>
       <c r="B15" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" s="39">
         <v>395000</v>
@@ -4020,7 +4027,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="35"/>
       <c r="B16" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="39">
         <v>460000</v>
@@ -4039,7 +4046,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="35"/>
       <c r="B17" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="39">
         <v>300000</v>
@@ -4058,7 +4065,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="35"/>
       <c r="B18" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="39">
         <v>0</v>
@@ -4077,7 +4084,7 @@
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="35"/>
       <c r="B19" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C19" s="39">
         <v>1130000</v>
@@ -4096,7 +4103,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="35"/>
       <c r="B20" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="39">
         <v>500000</v>
@@ -4115,7 +4122,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="35"/>
       <c r="B21" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="39">
         <v>570000</v>
@@ -4134,7 +4141,7 @@
     <row r="22" spans="1:8">
       <c r="A22" s="35"/>
       <c r="B22" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C22" s="39">
         <v>435000</v>
@@ -4153,7 +4160,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="35"/>
       <c r="B23" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="39">
         <v>310000</v>
@@ -4172,7 +4179,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="35"/>
       <c r="B24" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24" s="39">
         <v>60000</v>
@@ -4191,7 +4198,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="35"/>
       <c r="B25" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="39">
         <v>0</v>
@@ -4210,7 +4217,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="35"/>
       <c r="B26" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C26" s="39">
         <v>1050000</v>
@@ -4229,7 +4236,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="35"/>
       <c r="B27" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C27" s="39">
         <v>485000</v>
@@ -4248,7 +4255,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="35"/>
       <c r="B28" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C28" s="39">
         <v>400000</v>
@@ -4267,7 +4274,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="35"/>
       <c r="B29" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="39">
         <v>570000</v>
@@ -4286,7 +4293,7 @@
     <row r="30" spans="1:8">
       <c r="A30" s="35"/>
       <c r="B30" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C30" s="39">
         <v>430000</v>
@@ -4305,7 +4312,7 @@
     <row r="31" spans="1:8">
       <c r="A31" s="35"/>
       <c r="B31" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C31" s="39">
         <v>0</v>
@@ -4324,7 +4331,7 @@
     <row r="32" spans="1:8">
       <c r="A32" s="35"/>
       <c r="B32" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="39">
         <v>1310000</v>
@@ -4343,7 +4350,7 @@
     <row r="33" spans="1:8">
       <c r="A33" s="35"/>
       <c r="B33" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C33" s="39">
         <v>880000</v>
@@ -4968,7 +4975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5005,7 +5012,7 @@
     </row>
     <row r="2" spans="1:29" ht="23.25">
       <c r="A2" s="290" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="291"/>
       <c r="C2" s="291"/>
@@ -5270,7 +5277,7 @@
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" s="72">
         <v>62119</v>
@@ -5316,7 +5323,7 @@
         <v>2232696.9944142848</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G10" s="50"/>
       <c r="H10" s="28"/>
@@ -5383,7 +5390,7 @@
     </row>
     <row r="12" spans="1:29" ht="21.75">
       <c r="A12" s="67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="74">
         <v>0</v>
@@ -5530,7 +5537,7 @@
     </row>
     <row r="16" spans="1:29" ht="21.75">
       <c r="A16" s="79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="94">
         <v>37115</v>
@@ -5683,7 +5690,7 @@
     </row>
     <row r="20" spans="1:29" ht="21.75">
       <c r="A20" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="53">
         <v>38895</v>
@@ -5721,7 +5728,7 @@
     </row>
     <row r="21" spans="1:29" ht="21.75">
       <c r="A21" s="59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="53">
         <v>40000</v>
@@ -10687,11 +10694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10778,7 +10785,7 @@
     </row>
     <row r="2" spans="1:61" ht="15">
       <c r="A2" s="303" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="303"/>
       <c r="C2" s="303"/>
@@ -10974,7 +10981,7 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="105">
         <v>630490</v>
@@ -11050,7 +11057,7 @@
     </row>
     <row r="6" spans="1:61">
       <c r="A6" s="109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="110">
         <v>594250</v>
@@ -11126,7 +11133,7 @@
     </row>
     <row r="7" spans="1:61">
       <c r="A7" s="109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="110">
         <v>432720</v>
@@ -11202,7 +11209,7 @@
     </row>
     <row r="8" spans="1:61">
       <c r="A8" s="109" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="110">
         <v>403535</v>
@@ -11278,7 +11285,7 @@
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="109" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="110">
         <v>483765</v>
@@ -11354,7 +11361,7 @@
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="110">
         <v>516330</v>
@@ -11430,7 +11437,7 @@
     </row>
     <row r="11" spans="1:61">
       <c r="A11" s="109" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="110">
         <v>335890</v>
@@ -11506,7 +11513,7 @@
     </row>
     <row r="12" spans="1:61">
       <c r="A12" s="109" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="110">
         <v>373130</v>
@@ -11582,7 +11589,7 @@
     </row>
     <row r="13" spans="1:61">
       <c r="A13" s="109" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="110">
         <v>428130</v>
@@ -11658,7 +11665,7 @@
     </row>
     <row r="14" spans="1:61">
       <c r="A14" s="109" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" s="110">
         <v>313070</v>
@@ -11734,7 +11741,7 @@
     </row>
     <row r="15" spans="1:61">
       <c r="A15" s="109" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B15" s="110">
         <v>589130</v>
@@ -11810,7 +11817,7 @@
     </row>
     <row r="16" spans="1:61">
       <c r="A16" s="109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" s="110">
         <v>499915</v>
@@ -11886,7 +11893,7 @@
     </row>
     <row r="17" spans="1:61">
       <c r="A17" s="109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" s="110">
         <v>515650</v>
@@ -11962,7 +11969,7 @@
     </row>
     <row r="18" spans="1:61">
       <c r="A18" s="109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" s="110">
         <v>613235</v>
@@ -12038,7 +12045,7 @@
     </row>
     <row r="19" spans="1:61">
       <c r="A19" s="109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" s="110">
         <v>431925</v>
@@ -12114,7 +12121,7 @@
     </row>
     <row r="20" spans="1:61">
       <c r="A20" s="109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" s="110">
         <v>412820</v>
@@ -12190,7 +12197,7 @@
     </row>
     <row r="21" spans="1:61">
       <c r="A21" s="109" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="110">
         <v>485575</v>
@@ -12266,7 +12273,7 @@
     </row>
     <row r="22" spans="1:61">
       <c r="A22" s="109" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" s="110">
         <v>519540</v>
@@ -12342,7 +12349,7 @@
     </row>
     <row r="23" spans="1:61">
       <c r="A23" s="109" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" s="110">
         <v>495665</v>
@@ -12418,7 +12425,7 @@
     </row>
     <row r="24" spans="1:61">
       <c r="A24" s="109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" s="110">
         <v>538735</v>
@@ -12494,7 +12501,7 @@
     </row>
     <row r="25" spans="1:61">
       <c r="A25" s="109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="110">
         <v>551915</v>
@@ -12570,7 +12577,7 @@
     </row>
     <row r="26" spans="1:61">
       <c r="A26" s="109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="110">
         <v>359225</v>
@@ -12646,7 +12653,7 @@
     </row>
     <row r="27" spans="1:61">
       <c r="A27" s="109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="110">
         <v>844015</v>
@@ -12722,7 +12729,7 @@
     </row>
     <row r="28" spans="1:61">
       <c r="A28" s="109" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="110">
         <v>572095</v>
@@ -12798,7 +12805,7 @@
     </row>
     <row r="29" spans="1:61">
       <c r="A29" s="109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B29" s="110">
         <v>1000185</v>
@@ -12874,7 +12881,7 @@
     </row>
     <row r="30" spans="1:61">
       <c r="A30" s="109" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B30" s="110">
         <v>738345</v>
@@ -13369,16 +13376,16 @@
     </row>
     <row r="37" spans="1:61">
       <c r="A37" s="265" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37" s="103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="110">
         <v>19800</v>
       </c>
       <c r="D37" s="103" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E37" s="116"/>
       <c r="F37" s="111"/>
@@ -13449,7 +13456,7 @@
         <v>6000</v>
       </c>
       <c r="D38" s="103" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E38" s="115"/>
       <c r="F38" s="118"/>
@@ -13511,7 +13518,7 @@
     </row>
     <row r="39" spans="1:61">
       <c r="A39" s="144" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B39" s="103" t="s">
         <v>111</v>
@@ -13520,7 +13527,7 @@
         <v>6880</v>
       </c>
       <c r="D39" s="103" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E39" s="115"/>
       <c r="F39" s="111"/>
@@ -13585,13 +13592,13 @@
         <v>55</v>
       </c>
       <c r="B40" s="103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C40" s="110">
         <v>940</v>
       </c>
       <c r="D40" s="103" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E40" s="115"/>
       <c r="F40" s="111"/>
@@ -13974,7 +13981,7 @@
         <v>14450</v>
       </c>
       <c r="D46" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E46" s="115"/>
       <c r="F46" s="269"/>
@@ -14042,7 +14049,7 @@
         <v>100000</v>
       </c>
       <c r="D47" s="158" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E47" s="115"/>
       <c r="F47" s="269"/>
@@ -14110,7 +14117,7 @@
         <v>218875</v>
       </c>
       <c r="D48" s="155" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E48" s="115"/>
       <c r="F48" s="265"/>
@@ -14178,7 +14185,7 @@
         <v>267297</v>
       </c>
       <c r="D49" s="158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E49" s="115"/>
       <c r="F49" s="265"/>
@@ -14246,7 +14253,7 @@
         <v>62000</v>
       </c>
       <c r="D50" s="153" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E50" s="115"/>
       <c r="F50" s="265"/>
@@ -14314,7 +14321,7 @@
         <v>76000</v>
       </c>
       <c r="D51" s="161" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E51" s="115"/>
       <c r="F51" s="107"/>
@@ -14383,7 +14390,7 @@
         <v>200000</v>
       </c>
       <c r="D52" s="153" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E52" s="115"/>
       <c r="F52" s="265"/>
@@ -14452,7 +14459,7 @@
         <v>560606</v>
       </c>
       <c r="D53" s="164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E53" s="115"/>
       <c r="F53" s="108"/>
@@ -14521,7 +14528,7 @@
         <v>189550</v>
       </c>
       <c r="D54" s="153" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E54" s="115"/>
       <c r="F54" s="265"/>
@@ -14583,14 +14590,14 @@
     </row>
     <row r="55" spans="1:61">
       <c r="A55" s="162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B55" s="158"/>
       <c r="C55" s="157">
         <v>10000</v>
       </c>
       <c r="D55" s="164" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E55" s="115"/>
       <c r="F55" s="107"/>
@@ -14652,14 +14659,14 @@
     </row>
     <row r="56" spans="1:61">
       <c r="A56" s="160" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B56" s="107"/>
       <c r="C56" s="157">
         <v>23000</v>
       </c>
       <c r="D56" s="161" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E56" s="115"/>
       <c r="F56" s="107"/>
@@ -14721,14 +14728,14 @@
     </row>
     <row r="57" spans="1:61">
       <c r="A57" s="160" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B57" s="107"/>
       <c r="C57" s="157">
         <v>17750</v>
       </c>
       <c r="D57" s="161" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E57" s="115"/>
       <c r="F57" s="107"/>
@@ -14790,14 +14797,14 @@
     </row>
     <row r="58" spans="1:61">
       <c r="A58" s="160" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B58" s="107"/>
       <c r="C58" s="157">
         <v>19000</v>
       </c>
       <c r="D58" s="161" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E58" s="115"/>
       <c r="F58" s="108"/>
@@ -15055,7 +15062,7 @@
       <c r="D62" s="164"/>
       <c r="E62" s="124"/>
       <c r="F62" s="296" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G62" s="296"/>
       <c r="H62" s="263"/>
@@ -15128,7 +15135,7 @@
         <v>8000</v>
       </c>
       <c r="D63" s="164" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E63" s="115"/>
       <c r="F63" s="168"/>
@@ -15208,7 +15215,7 @@
         <v>50888</v>
       </c>
       <c r="D64" s="164" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E64" s="115"/>
       <c r="F64" s="170"/>
@@ -15288,21 +15295,21 @@
         <v>34458</v>
       </c>
       <c r="D65" s="158" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E65" s="115"/>
       <c r="F65" s="168"/>
       <c r="G65" s="169" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H65" s="169" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I65" s="108">
         <v>20000</v>
       </c>
       <c r="J65" s="107" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K65" s="181">
         <v>20000</v>
@@ -15367,7 +15374,7 @@
         <v>43710</v>
       </c>
       <c r="D66" s="164" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E66" s="115"/>
       <c r="F66" s="173"/>
@@ -15446,19 +15453,19 @@
         <v>25872</v>
       </c>
       <c r="D67" s="164" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E67" s="115"/>
       <c r="F67" s="168"/>
       <c r="G67" s="169" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H67" s="169"/>
       <c r="I67" s="108">
         <v>10000</v>
       </c>
       <c r="J67" s="159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K67" s="181">
         <v>10000</v>
@@ -15526,7 +15533,7 @@
         <v>1000</v>
       </c>
       <c r="D68" s="164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E68" s="115"/>
       <c r="F68" s="168"/>
@@ -15540,7 +15547,7 @@
         <v>5600</v>
       </c>
       <c r="J68" s="159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K68" s="181">
         <v>5600</v>
@@ -15605,7 +15612,7 @@
         <v>38895</v>
       </c>
       <c r="D69" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E69" s="264"/>
       <c r="F69" s="168"/>
@@ -15617,7 +15624,7 @@
         <v>51388</v>
       </c>
       <c r="J69" s="107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K69" s="181">
         <v>51388</v>
@@ -15685,7 +15692,7 @@
         <v>23800</v>
       </c>
       <c r="D70" s="158" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E70" s="115"/>
       <c r="F70" s="173"/>
@@ -15765,7 +15772,7 @@
         <v>24006</v>
       </c>
       <c r="D71" s="161" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E71" s="116"/>
       <c r="F71" s="173"/>
@@ -15777,7 +15784,7 @@
         <v>43710</v>
       </c>
       <c r="J71" s="159" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K71" s="181">
         <v>43710</v>
@@ -15857,7 +15864,7 @@
         <v>26372</v>
       </c>
       <c r="J72" s="159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K72" s="181">
         <v>26372</v>
@@ -16005,7 +16012,7 @@
         <v>19000</v>
       </c>
       <c r="D74" s="164" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E74" s="116"/>
       <c r="F74" s="173"/>
@@ -16017,7 +16024,7 @@
         <v>38895</v>
       </c>
       <c r="J74" s="159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K74" s="181">
         <v>38895</v>
@@ -16085,7 +16092,7 @@
         <v>8000</v>
       </c>
       <c r="D75" s="161" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E75" s="115"/>
       <c r="F75" s="173"/>
@@ -16097,7 +16104,7 @@
         <v>23800</v>
       </c>
       <c r="J75" s="174" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K75" s="181">
         <v>23800</v>
@@ -16165,7 +16172,7 @@
         <v>5000</v>
       </c>
       <c r="D76" s="161" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E76" s="115"/>
       <c r="F76" s="173"/>
@@ -16177,7 +16184,7 @@
         <v>24006</v>
       </c>
       <c r="J76" s="159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K76" s="181">
         <v>24006</v>
@@ -16238,14 +16245,14 @@
     </row>
     <row r="77" spans="1:61">
       <c r="A77" s="160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B77" s="107"/>
       <c r="C77" s="157">
         <v>11500</v>
       </c>
       <c r="D77" s="161" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E77" s="115"/>
       <c r="F77" s="168"/>
@@ -16410,14 +16417,14 @@
       <c r="E79" s="115"/>
       <c r="F79" s="173"/>
       <c r="G79" s="169" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H79" s="169"/>
       <c r="I79" s="108">
         <v>2060</v>
       </c>
       <c r="J79" s="159" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K79" s="181">
         <v>2060</v>
@@ -16478,14 +16485,14 @@
     </row>
     <row r="80" spans="1:61">
       <c r="A80" s="160" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B80" s="158"/>
       <c r="C80" s="157">
         <v>1000</v>
       </c>
       <c r="D80" s="164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E80" s="115"/>
       <c r="F80" s="173"/>
@@ -16558,14 +16565,14 @@
     </row>
     <row r="81" spans="1:61">
       <c r="A81" s="160" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B81" s="107"/>
       <c r="C81" s="157">
         <v>10000</v>
       </c>
       <c r="D81" s="161" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E81" s="115"/>
       <c r="F81" s="176"/>
@@ -16638,14 +16645,14 @@
     </row>
     <row r="82" spans="1:61">
       <c r="A82" s="160" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B82" s="107"/>
       <c r="C82" s="157">
         <v>40000</v>
       </c>
       <c r="D82" s="161" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E82" s="116"/>
       <c r="F82" s="177"/>
@@ -16718,14 +16725,14 @@
     </row>
     <row r="83" spans="1:61">
       <c r="A83" s="156" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B83" s="164"/>
       <c r="C83" s="157">
         <v>2160</v>
       </c>
       <c r="D83" s="161" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E83" s="116"/>
       <c r="F83" s="177"/>
@@ -16737,7 +16744,7 @@
         <v>14000</v>
       </c>
       <c r="J83" s="108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K83" s="181">
         <v>14000</v>
@@ -16798,14 +16805,14 @@
     </row>
     <row r="84" spans="1:61">
       <c r="A84" s="156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B84" s="107"/>
       <c r="C84" s="157">
         <v>5480</v>
       </c>
       <c r="D84" s="161" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E84" s="116"/>
       <c r="F84" s="176"/>
@@ -16817,7 +16824,7 @@
         <v>6000</v>
       </c>
       <c r="J84" s="159" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K84" s="181">
         <v>6000</v>
@@ -16890,14 +16897,14 @@
       <c r="E85" s="116"/>
       <c r="F85" s="176"/>
       <c r="G85" s="169" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H85" s="169"/>
       <c r="I85" s="108">
         <v>43600</v>
       </c>
       <c r="J85" s="159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K85" s="181">
         <v>43600</v>
@@ -16965,19 +16972,19 @@
         <v>37000</v>
       </c>
       <c r="D86" s="158" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E86" s="116"/>
       <c r="F86" s="173"/>
       <c r="G86" s="169" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H86" s="169"/>
       <c r="I86" s="108">
         <v>2100</v>
       </c>
       <c r="J86" s="159" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K86" s="181">
         <v>2100</v>
@@ -17038,14 +17045,14 @@
     </row>
     <row r="87" spans="1:61">
       <c r="A87" s="160" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B87" s="107"/>
       <c r="C87" s="157">
         <v>500</v>
       </c>
       <c r="D87" s="161" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E87" s="115"/>
       <c r="F87" s="173"/>
@@ -17127,7 +17134,7 @@
         <v>1300</v>
       </c>
       <c r="D88" s="158" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E88" s="115"/>
       <c r="F88" s="168"/>
@@ -17200,14 +17207,14 @@
     </row>
     <row r="89" spans="1:61">
       <c r="A89" s="156" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B89" s="107"/>
       <c r="C89" s="157">
         <v>2000</v>
       </c>
       <c r="D89" s="164" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E89" s="115"/>
       <c r="F89" s="173"/>
@@ -17221,7 +17228,7 @@
         <v>4300</v>
       </c>
       <c r="J89" s="107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K89" s="181">
         <v>4300</v>
@@ -17279,14 +17286,14 @@
     </row>
     <row r="90" spans="1:61">
       <c r="A90" s="160" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90" s="107"/>
       <c r="C90" s="157">
         <v>37115</v>
       </c>
       <c r="D90" s="164" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E90" s="115"/>
       <c r="F90" s="173"/>
@@ -17374,7 +17381,7 @@
         <v>2070</v>
       </c>
       <c r="J91" s="159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K91" s="181">
         <v>2070</v>
@@ -17440,16 +17447,16 @@
       <c r="D92" s="158"/>
       <c r="F92" s="173"/>
       <c r="G92" s="169" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H92" s="169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I92" s="108">
         <v>570</v>
       </c>
       <c r="J92" s="159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K92" s="181">
         <v>570</v>
@@ -17515,7 +17522,7 @@
       <c r="D93" s="158"/>
       <c r="F93" s="173"/>
       <c r="G93" s="171" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H93" s="171" t="s">
         <v>111</v>
@@ -17524,7 +17531,7 @@
         <v>1000</v>
       </c>
       <c r="J93" s="174" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K93" s="181">
         <v>1000</v>
@@ -17596,7 +17603,7 @@
         <v>11320</v>
       </c>
       <c r="J94" s="159" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K94" s="181">
         <v>11320</v>
@@ -17732,14 +17739,14 @@
       <c r="D96" s="158"/>
       <c r="F96" s="177"/>
       <c r="G96" s="171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H96" s="171"/>
       <c r="I96" s="172">
         <v>8000</v>
       </c>
       <c r="J96" s="174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K96" s="181">
         <v>8000</v>
@@ -17884,7 +17891,7 @@
         <v>2340</v>
       </c>
       <c r="J98" s="159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K98" s="181">
         <v>2340</v>
@@ -17945,18 +17952,18 @@
     </row>
     <row r="99" spans="1:61">
       <c r="A99" s="160" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B99" s="107"/>
       <c r="C99" s="157">
         <v>5000</v>
       </c>
       <c r="D99" s="161" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F99" s="177"/>
       <c r="G99" s="169" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H99" s="169" t="s">
         <v>111</v>
@@ -17965,7 +17972,7 @@
         <v>1580</v>
       </c>
       <c r="J99" s="159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K99" s="181">
         <v>1580</v>
@@ -18036,14 +18043,14 @@
       </c>
       <c r="F100" s="177"/>
       <c r="G100" s="169" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H100" s="169"/>
       <c r="I100" s="108">
         <v>15705</v>
       </c>
       <c r="J100" s="159" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K100" s="181">
         <v>15705</v>
@@ -18117,14 +18124,14 @@
       </c>
       <c r="F101" s="177"/>
       <c r="G101" s="169" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H101" s="169"/>
       <c r="I101" s="108">
         <v>20000</v>
       </c>
       <c r="J101" s="107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K101" s="181">
         <v>20000</v>
@@ -18194,18 +18201,18 @@
         <v>7300</v>
       </c>
       <c r="D102" s="161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F102" s="177"/>
       <c r="G102" s="171" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H102" s="171"/>
       <c r="I102" s="172">
         <v>14915</v>
       </c>
       <c r="J102" s="174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K102" s="181">
         <v>14915</v>
@@ -18270,7 +18277,7 @@
         <v>800</v>
       </c>
       <c r="D103" s="158" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F103" s="177"/>
       <c r="G103" s="169" t="s">
@@ -18283,7 +18290,7 @@
         <v>5140</v>
       </c>
       <c r="J103" s="159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K103" s="181">
         <v>5140</v>
@@ -18341,25 +18348,25 @@
     </row>
     <row r="104" spans="1:61">
       <c r="A104" s="160" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B104" s="158"/>
       <c r="C104" s="157">
         <v>5000</v>
       </c>
       <c r="D104" s="158" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F104" s="177"/>
       <c r="G104" s="171" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H104" s="171"/>
       <c r="I104" s="172">
         <v>59000</v>
       </c>
       <c r="J104" s="174" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K104" s="181">
         <v>59000</v>
@@ -18429,7 +18436,7 @@
         <v>2340</v>
       </c>
       <c r="D105" s="158" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F105" s="177"/>
       <c r="G105" s="169" t="s">
@@ -18501,14 +18508,14 @@
     </row>
     <row r="106" spans="1:61">
       <c r="A106" s="160" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B106" s="158"/>
       <c r="C106" s="157">
         <v>17500</v>
       </c>
       <c r="D106" s="158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F106" s="177"/>
       <c r="G106" s="171" t="s">
@@ -18519,7 +18526,7 @@
         <v>218875</v>
       </c>
       <c r="J106" s="172" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K106" s="181">
         <v>218875</v>
@@ -18589,7 +18596,7 @@
         <v>5340</v>
       </c>
       <c r="D107" s="158" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F107" s="177"/>
       <c r="G107" s="169" t="s">
@@ -18600,7 +18607,7 @@
         <v>267297</v>
       </c>
       <c r="J107" s="108" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K107" s="181">
         <v>267297</v>
@@ -18681,7 +18688,7 @@
         <v>62000</v>
       </c>
       <c r="J108" s="159" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K108" s="181">
         <v>62000</v>
@@ -18751,7 +18758,7 @@
         <v>30000</v>
       </c>
       <c r="D109" s="158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F109" s="177"/>
       <c r="G109" s="169" t="s">
@@ -18762,7 +18769,7 @@
         <v>70700</v>
       </c>
       <c r="J109" s="159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K109" s="181">
         <v>70700</v>
@@ -18843,7 +18850,7 @@
         <v>187000</v>
       </c>
       <c r="J110" s="174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K110" s="181">
         <v>187000</v>
@@ -18916,7 +18923,7 @@
         <v>507481</v>
       </c>
       <c r="J111" s="174" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K111" s="181">
         <v>507481</v>
@@ -18977,14 +18984,14 @@
     </row>
     <row r="112" spans="1:61">
       <c r="A112" s="160" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B112" s="158"/>
       <c r="C112" s="157">
         <v>22000</v>
       </c>
       <c r="D112" s="158" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F112" s="177"/>
       <c r="G112" s="169" t="s">
@@ -18995,7 +19002,7 @@
         <v>190680</v>
       </c>
       <c r="J112" s="107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K112" s="181">
         <v>190680</v>
@@ -19066,14 +19073,14 @@
       <c r="D113" s="181"/>
       <c r="F113" s="173"/>
       <c r="G113" s="169" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H113" s="169"/>
       <c r="I113" s="108">
         <v>17500</v>
       </c>
       <c r="J113" s="159" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K113" s="181">
         <v>17500</v>
@@ -19219,14 +19226,14 @@
       <c r="D115" s="186"/>
       <c r="F115" s="168"/>
       <c r="G115" s="171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H115" s="171"/>
       <c r="I115" s="172">
         <v>6540</v>
       </c>
       <c r="J115" s="174" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K115" s="181">
         <v>6540</v>
@@ -19289,14 +19296,14 @@
       <c r="D116" s="264"/>
       <c r="F116" s="173"/>
       <c r="G116" s="171" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H116" s="171"/>
       <c r="I116" s="172">
         <v>5380</v>
       </c>
       <c r="J116" s="174" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K116" s="181">
         <v>5380</v>
@@ -19441,7 +19448,7 @@
         <v>45000</v>
       </c>
       <c r="J118" s="174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K118" s="181">
         <v>45000</v>
@@ -19501,14 +19508,14 @@
       <c r="C119" s="192"/>
       <c r="F119" s="168"/>
       <c r="G119" s="171" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H119" s="171"/>
       <c r="I119" s="172">
         <v>16000</v>
       </c>
       <c r="J119" s="174" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K119" s="181">
         <v>16000</v>
@@ -19578,7 +19585,7 @@
         <v>7000</v>
       </c>
       <c r="J120" s="174" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K120" s="181">
         <v>7000</v>
@@ -19725,7 +19732,7 @@
         <v>20000</v>
       </c>
       <c r="J122" s="159" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K122" s="181">
         <v>20000</v>
@@ -19788,14 +19795,14 @@
       <c r="D123" s="148"/>
       <c r="F123" s="168"/>
       <c r="G123" s="169" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H123" s="169"/>
       <c r="I123" s="108">
         <v>30000</v>
       </c>
       <c r="J123" s="159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K123" s="181">
         <v>30000</v>
@@ -19861,14 +19868,14 @@
       <c r="D124" s="199"/>
       <c r="F124" s="173"/>
       <c r="G124" s="169" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H124" s="169"/>
       <c r="I124" s="108">
         <v>10000</v>
       </c>
       <c r="J124" s="108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K124" s="181">
         <v>10000</v>
@@ -19943,7 +19950,7 @@
         <v>30000</v>
       </c>
       <c r="J125" s="159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K125" s="181">
         <v>30000</v>
@@ -20081,14 +20088,14 @@
       <c r="C127" s="192"/>
       <c r="F127" s="173"/>
       <c r="G127" s="171" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H127" s="171"/>
       <c r="I127" s="172">
         <v>41435</v>
       </c>
       <c r="J127" s="174" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K127" s="181">
         <v>41435</v>
@@ -21853,14 +21860,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="14" topLeftCell="K25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="14" topLeftCell="K29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="S38" sqref="S38"/>
+      <selection pane="bottomRight" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21871,94 +21878,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="311" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
-      <c r="M1" s="319"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="319"/>
-      <c r="P1" s="319"/>
-      <c r="Q1" s="319"/>
-      <c r="R1" s="319"/>
-      <c r="S1" s="319"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="311"/>
+      <c r="F1" s="311"/>
+      <c r="G1" s="311"/>
+      <c r="H1" s="311"/>
+      <c r="I1" s="311"/>
+      <c r="J1" s="311"/>
+      <c r="K1" s="311"/>
+      <c r="L1" s="311"/>
+      <c r="M1" s="311"/>
+      <c r="N1" s="311"/>
+      <c r="O1" s="311"/>
+      <c r="P1" s="311"/>
+      <c r="Q1" s="311"/>
+      <c r="R1" s="311"/>
+      <c r="S1" s="311"/>
     </row>
     <row r="2" spans="1:26" s="204" customFormat="1" ht="18">
-      <c r="A2" s="320" t="s">
+      <c r="A2" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320"/>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-      <c r="L2" s="320"/>
-      <c r="M2" s="320"/>
-      <c r="N2" s="320"/>
-      <c r="O2" s="320"/>
-      <c r="P2" s="320"/>
-      <c r="Q2" s="320"/>
-      <c r="R2" s="320"/>
-      <c r="S2" s="320"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="312"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="312"/>
+      <c r="Q2" s="312"/>
+      <c r="R2" s="312"/>
+      <c r="S2" s="312"/>
     </row>
     <row r="3" spans="1:26" s="204" customFormat="1">
-      <c r="A3" s="321"/>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="321"/>
-      <c r="L3" s="321"/>
-      <c r="M3" s="321"/>
-      <c r="N3" s="321"/>
-      <c r="O3" s="321"/>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="321"/>
-      <c r="R3" s="321"/>
-      <c r="S3" s="321"/>
+      <c r="A3" s="313"/>
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="313"/>
+      <c r="M3" s="313"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="313"/>
+      <c r="P3" s="313"/>
+      <c r="Q3" s="313"/>
+      <c r="R3" s="313"/>
+      <c r="S3" s="313"/>
     </row>
     <row r="4" spans="1:26" s="205" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A4" s="322" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="323"/>
-      <c r="C4" s="323"/>
-      <c r="D4" s="323"/>
-      <c r="E4" s="323"/>
-      <c r="F4" s="323"/>
-      <c r="G4" s="323"/>
-      <c r="H4" s="323"/>
-      <c r="I4" s="323"/>
-      <c r="J4" s="323"/>
-      <c r="K4" s="323"/>
-      <c r="L4" s="323"/>
-      <c r="M4" s="323"/>
-      <c r="N4" s="323"/>
-      <c r="O4" s="323"/>
-      <c r="P4" s="323"/>
-      <c r="Q4" s="323"/>
-      <c r="R4" s="323"/>
-      <c r="S4" s="324"/>
+      <c r="A4" s="314" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="315"/>
+      <c r="C4" s="315"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="315"/>
+      <c r="J4" s="315"/>
+      <c r="K4" s="315"/>
+      <c r="L4" s="315"/>
+      <c r="M4" s="315"/>
+      <c r="N4" s="315"/>
+      <c r="O4" s="315"/>
+      <c r="P4" s="315"/>
+      <c r="Q4" s="315"/>
+      <c r="R4" s="315"/>
+      <c r="S4" s="316"/>
       <c r="U4" s="116"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -21967,59 +21974,59 @@
       <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="1:26" s="207" customFormat="1">
-      <c r="A5" s="325" t="s">
+      <c r="A5" s="317" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="327" t="s">
+      <c r="B5" s="319" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="321" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="313" t="s">
+      <c r="D5" s="321" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="313" t="s">
+      <c r="E5" s="321" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="313" t="s">
+      <c r="F5" s="321" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="313" t="s">
+      <c r="G5" s="321" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="313" t="s">
+      <c r="H5" s="321" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="313" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" s="313" t="s">
+      <c r="I5" s="321" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="321" t="s">
         <v>124</v>
       </c>
-      <c r="K5" s="313" t="s">
+      <c r="K5" s="321" t="s">
         <v>125</v>
       </c>
-      <c r="L5" s="313" t="s">
+      <c r="L5" s="321" t="s">
         <v>126</v>
       </c>
-      <c r="M5" s="313" t="s">
+      <c r="M5" s="321" t="s">
         <v>127</v>
       </c>
-      <c r="N5" s="313" t="s">
+      <c r="N5" s="321" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="315" t="s">
+      <c r="O5" s="327" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="317" t="s">
+      <c r="P5" s="329" t="s">
         <v>130</v>
       </c>
-      <c r="Q5" s="311" t="s">
+      <c r="Q5" s="325" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="329" t="s">
-        <v>131</v>
+      <c r="R5" s="323" t="s">
+        <v>226</v>
       </c>
       <c r="S5" s="206" t="s">
         <v>4</v>
@@ -22031,26 +22038,26 @@
       <c r="Y5" s="209"/>
     </row>
     <row r="6" spans="1:26" s="207" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A6" s="326"/>
-      <c r="B6" s="328"/>
-      <c r="C6" s="314"/>
-      <c r="D6" s="314"/>
-      <c r="E6" s="314"/>
-      <c r="F6" s="314"/>
-      <c r="G6" s="314"/>
-      <c r="H6" s="314"/>
-      <c r="I6" s="314"/>
-      <c r="J6" s="314"/>
-      <c r="K6" s="314"/>
-      <c r="L6" s="314"/>
-      <c r="M6" s="314"/>
-      <c r="N6" s="314"/>
-      <c r="O6" s="316"/>
-      <c r="P6" s="318"/>
-      <c r="Q6" s="312"/>
-      <c r="R6" s="330"/>
+      <c r="A6" s="318"/>
+      <c r="B6" s="320"/>
+      <c r="C6" s="322"/>
+      <c r="D6" s="322"/>
+      <c r="E6" s="322"/>
+      <c r="F6" s="322"/>
+      <c r="G6" s="322"/>
+      <c r="H6" s="322"/>
+      <c r="I6" s="322"/>
+      <c r="J6" s="322"/>
+      <c r="K6" s="322"/>
+      <c r="L6" s="322"/>
+      <c r="M6" s="322"/>
+      <c r="N6" s="322"/>
+      <c r="O6" s="328"/>
+      <c r="P6" s="330"/>
+      <c r="Q6" s="326"/>
+      <c r="R6" s="324"/>
       <c r="S6" s="211" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U6" s="212"/>
       <c r="V6" s="213"/>
@@ -22061,7 +22068,7 @@
     </row>
     <row r="7" spans="1:26" s="22" customFormat="1">
       <c r="A7" s="215" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="216">
         <v>800</v>
@@ -22109,7 +22116,7 @@
     </row>
     <row r="8" spans="1:26" s="22" customFormat="1">
       <c r="A8" s="215" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="216">
         <v>1000</v>
@@ -22151,7 +22158,7 @@
     </row>
     <row r="9" spans="1:26" s="22" customFormat="1">
       <c r="A9" s="215" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="223">
         <v>1000</v>
@@ -22190,14 +22197,14 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X9" s="48"/>
       <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:26" s="22" customFormat="1">
       <c r="A10" s="215" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" s="223">
         <v>1300</v>
@@ -22245,7 +22252,7 @@
     </row>
     <row r="11" spans="1:26" s="22" customFormat="1">
       <c r="A11" s="215" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B11" s="223">
         <v>500</v>
@@ -22291,7 +22298,7 @@
     </row>
     <row r="12" spans="1:26" s="22" customFormat="1">
       <c r="A12" s="215" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="223">
         <v>1300</v>
@@ -22333,7 +22340,7 @@
     </row>
     <row r="13" spans="1:26" s="22" customFormat="1">
       <c r="A13" s="215" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" s="223">
         <v>600</v>
@@ -22379,7 +22386,7 @@
     </row>
     <row r="14" spans="1:26" s="22" customFormat="1">
       <c r="A14" s="215" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" s="223">
         <v>1000</v>
@@ -22427,7 +22434,7 @@
     </row>
     <row r="15" spans="1:26" s="22" customFormat="1">
       <c r="A15" s="215" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" s="223">
         <v>1000</v>
@@ -22473,7 +22480,7 @@
     </row>
     <row r="16" spans="1:26" s="22" customFormat="1">
       <c r="A16" s="215" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" s="223">
         <v>800</v>
@@ -22517,7 +22524,7 @@
     </row>
     <row r="17" spans="1:25" s="22" customFormat="1">
       <c r="A17" s="215" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" s="223">
         <v>1000</v>
@@ -22559,7 +22566,7 @@
     </row>
     <row r="18" spans="1:25" s="22" customFormat="1">
       <c r="A18" s="215" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="223">
         <v>1300</v>
@@ -22603,7 +22610,7 @@
     </row>
     <row r="19" spans="1:25" s="22" customFormat="1">
       <c r="A19" s="215" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" s="223">
         <v>500</v>
@@ -22647,7 +22654,7 @@
     </row>
     <row r="20" spans="1:25" s="22" customFormat="1">
       <c r="A20" s="215" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="223">
         <v>1050</v>
@@ -22693,7 +22700,7 @@
     </row>
     <row r="21" spans="1:25" s="22" customFormat="1">
       <c r="A21" s="215" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="223">
         <v>1300</v>
@@ -22735,7 +22742,7 @@
     </row>
     <row r="22" spans="1:25" s="22" customFormat="1">
       <c r="A22" s="215" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="223"/>
       <c r="C22" s="216">
@@ -22773,7 +22780,7 @@
     </row>
     <row r="23" spans="1:25" s="22" customFormat="1">
       <c r="A23" s="215" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23" s="223">
         <v>1300</v>
@@ -22817,7 +22824,7 @@
     </row>
     <row r="24" spans="1:25" s="231" customFormat="1">
       <c r="A24" s="215" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" s="223">
         <v>1500</v>
@@ -22857,7 +22864,7 @@
     </row>
     <row r="25" spans="1:25" s="22" customFormat="1">
       <c r="A25" s="215" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" s="223"/>
       <c r="C25" s="216"/>
@@ -22898,7 +22905,7 @@
     </row>
     <row r="26" spans="1:25" s="231" customFormat="1">
       <c r="A26" s="215" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="223">
         <v>1350</v>
@@ -22940,7 +22947,7 @@
     </row>
     <row r="27" spans="1:25" s="22" customFormat="1">
       <c r="A27" s="215" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" s="223">
         <v>1500</v>
@@ -22984,7 +22991,7 @@
     </row>
     <row r="28" spans="1:25" s="22" customFormat="1">
       <c r="A28" s="215" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" s="223"/>
       <c r="C28" s="216"/>
@@ -23024,7 +23031,7 @@
     </row>
     <row r="29" spans="1:25" s="22" customFormat="1">
       <c r="A29" s="215" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B29" s="223">
         <v>1000</v>
@@ -23070,7 +23077,7 @@
     </row>
     <row r="30" spans="1:25" s="22" customFormat="1">
       <c r="A30" s="215" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B30" s="223">
         <v>1500</v>
@@ -23112,7 +23119,7 @@
     </row>
     <row r="31" spans="1:25" s="22" customFormat="1">
       <c r="A31" s="215" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B31" s="223">
         <v>500</v>
@@ -23158,7 +23165,7 @@
     </row>
     <row r="32" spans="1:25" s="22" customFormat="1">
       <c r="A32" s="215" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" s="223">
         <v>550</v>
@@ -23194,10 +23201,12 @@
         <v>10000</v>
       </c>
       <c r="Q32" s="224"/>
-      <c r="R32" s="226"/>
+      <c r="R32" s="226">
+        <v>3285</v>
+      </c>
       <c r="S32" s="220">
         <f t="shared" si="0"/>
-        <v>12474</v>
+        <v>15759</v>
       </c>
       <c r="T32" s="221"/>
     </row>
@@ -23328,7 +23337,7 @@
     </row>
     <row r="38" spans="1:20" s="204" customFormat="1" ht="13.5" thickBot="1">
       <c r="A38" s="240" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38" s="241">
         <f>SUM(B7:B37)</f>
@@ -23396,11 +23405,11 @@
       </c>
       <c r="R38" s="243">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3285</v>
       </c>
       <c r="S38" s="244">
         <f>SUM(S7:S37)</f>
-        <v>69215</v>
+        <v>72500</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -25405,6 +25414,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -25421,12 +25436,6 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
